--- a/Vaccinations_Provided/vaccinations_reports.xlsx
+++ b/Vaccinations_Provided/vaccinations_reports.xlsx
@@ -19,42 +19,42 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
-    <pivotCache cacheId="3" r:id="rId13"/>
-    <pivotCache cacheId="4" r:id="rId14"/>
-    <pivotCache cacheId="5" r:id="rId15"/>
-    <pivotCache cacheId="6" r:id="rId16"/>
-    <pivotCache cacheId="7" r:id="rId17"/>
-    <pivotCache cacheId="8" r:id="rId18"/>
-    <pivotCache cacheId="9" r:id="rId19"/>
-    <pivotCache cacheId="10" r:id="rId20"/>
-    <pivotCache cacheId="11" r:id="rId21"/>
-    <pivotCache cacheId="12" r:id="rId22"/>
-    <pivotCache cacheId="13" r:id="rId23"/>
-    <pivotCache cacheId="14" r:id="rId24"/>
-    <pivotCache cacheId="15" r:id="rId25"/>
-    <pivotCache cacheId="16" r:id="rId26"/>
-    <pivotCache cacheId="17" r:id="rId27"/>
-    <pivotCache cacheId="18" r:id="rId28"/>
-    <pivotCache cacheId="19" r:id="rId29"/>
-    <pivotCache cacheId="20" r:id="rId30"/>
-    <pivotCache cacheId="21" r:id="rId31"/>
-    <pivotCache cacheId="22" r:id="rId32"/>
-    <pivotCache cacheId="23" r:id="rId33"/>
-    <pivotCache cacheId="24" r:id="rId34"/>
-    <pivotCache cacheId="25" r:id="rId35"/>
-    <pivotCache cacheId="26" r:id="rId36"/>
-    <pivotCache cacheId="27" r:id="rId37"/>
-    <pivotCache cacheId="28" r:id="rId38"/>
-    <pivotCache cacheId="29" r:id="rId39"/>
+    <pivotCache cacheId="34" r:id="rId10"/>
+    <pivotCache cacheId="35" r:id="rId11"/>
+    <pivotCache cacheId="36" r:id="rId12"/>
+    <pivotCache cacheId="37" r:id="rId13"/>
+    <pivotCache cacheId="38" r:id="rId14"/>
+    <pivotCache cacheId="39" r:id="rId15"/>
+    <pivotCache cacheId="40" r:id="rId16"/>
+    <pivotCache cacheId="41" r:id="rId17"/>
+    <pivotCache cacheId="42" r:id="rId18"/>
+    <pivotCache cacheId="43" r:id="rId19"/>
+    <pivotCache cacheId="44" r:id="rId20"/>
+    <pivotCache cacheId="45" r:id="rId21"/>
+    <pivotCache cacheId="46" r:id="rId22"/>
+    <pivotCache cacheId="47" r:id="rId23"/>
+    <pivotCache cacheId="48" r:id="rId24"/>
+    <pivotCache cacheId="49" r:id="rId25"/>
+    <pivotCache cacheId="50" r:id="rId26"/>
+    <pivotCache cacheId="51" r:id="rId27"/>
+    <pivotCache cacheId="52" r:id="rId28"/>
+    <pivotCache cacheId="53" r:id="rId29"/>
+    <pivotCache cacheId="54" r:id="rId30"/>
+    <pivotCache cacheId="55" r:id="rId31"/>
+    <pivotCache cacheId="56" r:id="rId32"/>
+    <pivotCache cacheId="57" r:id="rId33"/>
+    <pivotCache cacheId="58" r:id="rId34"/>
+    <pivotCache cacheId="59" r:id="rId35"/>
+    <pivotCache cacheId="60" r:id="rId36"/>
+    <pivotCache cacheId="61" r:id="rId37"/>
+    <pivotCache cacheId="62" r:id="rId38"/>
+    <pivotCache cacheId="63" r:id="rId39"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -153,12 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mean          </t>
-  </si>
-  <si>
-    <t>This dataset was provided by The Texas Department of State Services-Wide Integrated Client Encounter System (TWICES).  The dataset can be located at https://data.austintexas.gov/Health-and-Community-Services/Adult-and-Children-Vaccinations-Provided/nttt-2a35 .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My analysis covers the time period from 6/30/2012 until 10/31/2017.  November 2017 and December 2017 are not included in this analysis. </t>
   </si>
 </sst>
 </file>
@@ -708,9 +702,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -726,6 +717,7 @@
     <xf numFmtId="14" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -772,6 +764,130 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1013,130 +1129,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
@@ -1274,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="597279104"/>
-        <c:axId val="597280640"/>
+        <c:axId val="510255104"/>
+        <c:axId val="510256640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="597279104"/>
+        <c:axId val="510255104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597280640"/>
+        <c:crossAx val="510256640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1295,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597280640"/>
+        <c:axId val="510256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,14 +1298,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597279104"/>
+        <c:crossAx val="510255104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1506,11 +1497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598698624"/>
-        <c:axId val="598729088"/>
+        <c:axId val="590788096"/>
+        <c:axId val="590789632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598698624"/>
+        <c:axId val="590788096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598729088"/>
+        <c:crossAx val="590789632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,7 +1518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598729088"/>
+        <c:axId val="590789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598698624"/>
+        <c:crossAx val="590788096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,7 +1604,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1758,11 +1748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598407424"/>
-        <c:axId val="595881984"/>
+        <c:axId val="590541952"/>
+        <c:axId val="590543488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598407424"/>
+        <c:axId val="590541952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595881984"/>
+        <c:crossAx val="590543488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1779,7 +1769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595881984"/>
+        <c:axId val="590543488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,14 +1792,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598407424"/>
+        <c:crossAx val="590541952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,7 +1860,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2004,11 +1992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598396928"/>
-        <c:axId val="598398464"/>
+        <c:axId val="590592640"/>
+        <c:axId val="590594432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598396928"/>
+        <c:axId val="590592640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598398464"/>
+        <c:crossAx val="590594432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +2013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598398464"/>
+        <c:axId val="590594432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,14 +2036,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598396928"/>
+        <c:crossAx val="590592640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2240,11 +2227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598087168"/>
-        <c:axId val="598088704"/>
+        <c:axId val="590619008"/>
+        <c:axId val="590620544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598087168"/>
+        <c:axId val="590619008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598088704"/>
+        <c:crossAx val="590620544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2261,7 +2248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598088704"/>
+        <c:axId val="590620544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598087168"/>
+        <c:crossAx val="590619008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2475,11 +2462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598113280"/>
-        <c:axId val="598127360"/>
+        <c:axId val="590641024"/>
+        <c:axId val="590642560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598113280"/>
+        <c:axId val="590641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598127360"/>
+        <c:crossAx val="590642560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598127360"/>
+        <c:axId val="590642560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,7 +2512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598113280"/>
+        <c:crossAx val="590641024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2582,7 +2569,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2717,11 +2703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598923520"/>
-        <c:axId val="599195648"/>
+        <c:axId val="590919168"/>
+        <c:axId val="590920704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598923520"/>
+        <c:axId val="590919168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599195648"/>
+        <c:crossAx val="590920704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599195648"/>
+        <c:axId val="590920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,14 +2747,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598923520"/>
+        <c:crossAx val="590919168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2830,7 +2815,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2963,11 +2947,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599224320"/>
-        <c:axId val="599225856"/>
+        <c:axId val="590928896"/>
+        <c:axId val="590156544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599224320"/>
+        <c:axId val="590928896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +2960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599225856"/>
+        <c:crossAx val="590156544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2984,7 +2968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599225856"/>
+        <c:axId val="590156544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,14 +2991,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599224320"/>
+        <c:crossAx val="590928896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3199,11 +3182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599262720"/>
-        <c:axId val="599264256"/>
+        <c:axId val="590189312"/>
+        <c:axId val="590190848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599262720"/>
+        <c:axId val="590189312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599264256"/>
+        <c:crossAx val="590190848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3220,7 +3203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599264256"/>
+        <c:axId val="590190848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3249,7 +3232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599262720"/>
+        <c:crossAx val="590189312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3434,11 +3417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599280640"/>
-        <c:axId val="599298816"/>
+        <c:axId val="590211328"/>
+        <c:axId val="569380864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599280640"/>
+        <c:axId val="590211328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599298816"/>
+        <c:crossAx val="569380864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3455,7 +3438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599298816"/>
+        <c:axId val="569380864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599280640"/>
+        <c:crossAx val="590211328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3541,7 +3524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3676,11 +3658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599169664"/>
-        <c:axId val="599191936"/>
+        <c:axId val="590951936"/>
+        <c:axId val="590953472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599169664"/>
+        <c:axId val="590951936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,7 +3671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599191936"/>
+        <c:crossAx val="590953472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3697,7 +3679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599191936"/>
+        <c:axId val="590953472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,14 +3702,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599169664"/>
+        <c:crossAx val="590951936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3789,7 +3770,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4122,11 +4102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597661568"/>
-        <c:axId val="597663104"/>
+        <c:axId val="510354944"/>
+        <c:axId val="510356480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597661568"/>
+        <c:axId val="510354944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597663104"/>
+        <c:crossAx val="510356480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4143,7 +4123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597663104"/>
+        <c:axId val="510356480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,21 +4146,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597661568"/>
+        <c:crossAx val="510354944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4231,7 +4209,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4364,11 +4341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599613824"/>
-        <c:axId val="599615360"/>
+        <c:axId val="590994432"/>
+        <c:axId val="591012608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599613824"/>
+        <c:axId val="590994432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4377,7 +4354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599615360"/>
+        <c:crossAx val="591012608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4385,7 +4362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599615360"/>
+        <c:axId val="591012608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4408,14 +4385,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599613824"/>
+        <c:crossAx val="590994432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4600,11 +4576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599631744"/>
-        <c:axId val="599633280"/>
+        <c:axId val="591033088"/>
+        <c:axId val="591034624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599631744"/>
+        <c:axId val="591033088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,7 +4589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599633280"/>
+        <c:crossAx val="591034624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4621,7 +4597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599633280"/>
+        <c:axId val="591034624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,7 +4626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599631744"/>
+        <c:crossAx val="591033088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4835,11 +4811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599657856"/>
-        <c:axId val="599680128"/>
+        <c:axId val="591046912"/>
+        <c:axId val="591073280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599657856"/>
+        <c:axId val="591046912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4848,7 +4824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599680128"/>
+        <c:crossAx val="591073280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4856,7 +4832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599680128"/>
+        <c:axId val="591073280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,7 +4861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599657856"/>
+        <c:crossAx val="591046912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4942,7 +4918,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5065,11 +5040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598054400"/>
-        <c:axId val="598055936"/>
+        <c:axId val="591511936"/>
+        <c:axId val="591513472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598054400"/>
+        <c:axId val="591511936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5078,7 +5053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598055936"/>
+        <c:crossAx val="591513472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5086,7 +5061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598055936"/>
+        <c:axId val="591513472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5109,14 +5084,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598054400"/>
+        <c:crossAx val="591511936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5178,7 +5152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5299,11 +5272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598072320"/>
-        <c:axId val="598078208"/>
+        <c:axId val="591804288"/>
+        <c:axId val="591805824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598072320"/>
+        <c:axId val="591804288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5312,7 +5285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598078208"/>
+        <c:crossAx val="591805824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5320,7 +5293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598078208"/>
+        <c:axId val="591805824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5343,14 +5316,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598072320"/>
+        <c:crossAx val="591804288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5523,11 +5495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598512384"/>
-        <c:axId val="598513920"/>
+        <c:axId val="591834496"/>
+        <c:axId val="591852672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598512384"/>
+        <c:axId val="591834496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5536,7 +5508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598513920"/>
+        <c:crossAx val="591852672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5544,7 +5516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598513920"/>
+        <c:axId val="591852672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5573,7 +5545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598512384"/>
+        <c:crossAx val="591834496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5746,11 +5718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598526208"/>
-        <c:axId val="599982080"/>
+        <c:axId val="591873152"/>
+        <c:axId val="591874688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598526208"/>
+        <c:axId val="591873152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5759,7 +5731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599982080"/>
+        <c:crossAx val="591874688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5767,7 +5739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599982080"/>
+        <c:axId val="591874688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5796,7 +5768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598526208"/>
+        <c:crossAx val="591873152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5853,7 +5825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6300,11 +6271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597750144"/>
-        <c:axId val="597751680"/>
+        <c:axId val="590121984"/>
+        <c:axId val="591340288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597750144"/>
+        <c:axId val="590121984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6313,7 +6284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597751680"/>
+        <c:crossAx val="591340288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6321,7 +6292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597751680"/>
+        <c:axId val="591340288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6332,7 +6303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597750144"/>
+        <c:crossAx val="590121984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6394,7 +6365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6833,11 +6803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597497344"/>
-        <c:axId val="597498880"/>
+        <c:axId val="591364480"/>
+        <c:axId val="591366016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597497344"/>
+        <c:axId val="591364480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6846,7 +6816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597498880"/>
+        <c:crossAx val="591366016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6854,7 +6824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597498880"/>
+        <c:axId val="591366016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6865,7 +6835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597497344"/>
+        <c:crossAx val="591364480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6913,7 +6883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7352,11 +7321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597529344"/>
-        <c:axId val="597530880"/>
+        <c:axId val="591377920"/>
+        <c:axId val="591379456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597529344"/>
+        <c:axId val="591377920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,7 +7334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597530880"/>
+        <c:crossAx val="591379456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7373,7 +7342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597530880"/>
+        <c:axId val="591379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7384,7 +7353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597529344"/>
+        <c:crossAx val="591377920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7441,7 +7410,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7546,11 +7514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597839232"/>
-        <c:axId val="597869696"/>
+        <c:axId val="510791680"/>
+        <c:axId val="510793216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597839232"/>
+        <c:axId val="510791680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7559,7 +7527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597869696"/>
+        <c:crossAx val="510793216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7567,7 +7535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597869696"/>
+        <c:axId val="510793216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7590,14 +7558,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597839232"/>
+        <c:crossAx val="510791680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7654,7 +7621,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8093,11 +8059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598280064"/>
-        <c:axId val="598281600"/>
+        <c:axId val="590314112"/>
+        <c:axId val="590320000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598280064"/>
+        <c:axId val="590314112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8106,7 +8072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598281600"/>
+        <c:crossAx val="590320000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8114,7 +8080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598281600"/>
+        <c:axId val="590320000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8125,7 +8091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598280064"/>
+        <c:crossAx val="590314112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8178,7 +8144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8281,11 +8246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597898368"/>
-        <c:axId val="597899904"/>
+        <c:axId val="510813696"/>
+        <c:axId val="510815232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597898368"/>
+        <c:axId val="510813696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8294,7 +8259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597899904"/>
+        <c:crossAx val="510815232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8302,7 +8267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597899904"/>
+        <c:axId val="510815232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8325,14 +8290,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597898368"/>
+        <c:crossAx val="510813696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8487,11 +8451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597920384"/>
-        <c:axId val="597926272"/>
+        <c:axId val="510848000"/>
+        <c:axId val="461382400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597920384"/>
+        <c:axId val="510848000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8500,7 +8464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597926272"/>
+        <c:crossAx val="461382400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8508,7 +8472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597926272"/>
+        <c:axId val="461382400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8537,7 +8501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597920384"/>
+        <c:crossAx val="510848000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8692,11 +8656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597936384"/>
-        <c:axId val="597966848"/>
+        <c:axId val="461394688"/>
+        <c:axId val="461396224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597936384"/>
+        <c:axId val="461394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8705,7 +8669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597966848"/>
+        <c:crossAx val="461396224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8713,7 +8677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597966848"/>
+        <c:axId val="461396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8742,7 +8706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597936384"/>
+        <c:crossAx val="461394688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8799,7 +8763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8934,11 +8897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598226816"/>
-        <c:axId val="598228352"/>
+        <c:axId val="510284544"/>
+        <c:axId val="510286080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598226816"/>
+        <c:axId val="510284544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8947,7 +8910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598228352"/>
+        <c:crossAx val="510286080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8955,7 +8918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598228352"/>
+        <c:axId val="510286080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,14 +8941,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598226816"/>
+        <c:crossAx val="510284544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9047,7 +9009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9180,11 +9141,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598244736"/>
-        <c:axId val="598250624"/>
+        <c:axId val="510294272"/>
+        <c:axId val="510312448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598244736"/>
+        <c:axId val="510294272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9193,7 +9154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598250624"/>
+        <c:crossAx val="510312448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9201,7 +9162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598250624"/>
+        <c:axId val="510312448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9224,14 +9185,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598244736"/>
+        <c:crossAx val="510294272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9416,11 +9376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598680704"/>
-        <c:axId val="598682240"/>
+        <c:axId val="590757888"/>
+        <c:axId val="590759424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598680704"/>
+        <c:axId val="590757888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9429,7 +9389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598682240"/>
+        <c:crossAx val="590759424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9437,7 +9397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598682240"/>
+        <c:axId val="590759424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9466,7 +9426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598680704"/>
+        <c:crossAx val="590757888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15968,7 +15928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="10">
   <location ref="A22:G27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -16274,33 +16234,33 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable23" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A22:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="13">
+        <item x="5"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item x="10"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item x="11"/>
+        <item x="1"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="2"/>
         <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
+    <pivotField showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -16353,139 +16313,20 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="39">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+    <format dxfId="67">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
+          <reference field="0" count="1">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+    <format dxfId="66">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="0" count="1">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable41" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A55:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
-      <items count="13">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="25">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -16520,9 +16361,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable38" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A38:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable32" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A4:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
       <items count="13">
@@ -16600,7 +16441,126 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="27">
+    <format dxfId="53">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable41" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A55:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="13">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -16609,7 +16569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="54">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -16649,7 +16609,135 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable35" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable38" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A38:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="57">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable35" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A21:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -16728,7 +16816,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="29">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -16737,7 +16825,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -16776,8 +16864,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable32" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable42" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -16856,20 +16944,20 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="31">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
-            <x v="0"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
-            <x v="0"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -16895,8 +16983,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable52" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable52" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A55:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -16975,7 +17063,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="17">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -16984,135 +17072,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable48" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A38:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -17152,7 +17112,135 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable45" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable48" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A38:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="49">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable45" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A21:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -17231,7 +17319,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="21">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -17240,7 +17328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -17279,9 +17367,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable42" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable53" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
       <items count="13">
@@ -17359,7 +17447,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="23">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -17368,7 +17456,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -17398,136 +17486,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable61" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A56:B69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
-      <items count="13">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A6:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
@@ -17658,7 +17618,135 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable58" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable61" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A56:B69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="39">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable58" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A39:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -17737,7 +17825,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -17746,7 +17834,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -17785,8 +17873,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable56" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable56" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A22:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -17865,7 +17953,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -17874,7 +17962,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -17913,12 +18001,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable53" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable62" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
-      <items count="13">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -17929,8 +18017,6 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -17945,7 +18031,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -17975,12 +18061,6 @@
     </i>
     <i>
       <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -17993,7 +18073,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18002,7 +18082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18032,8 +18112,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable70" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable70" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A50:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -18104,7 +18184,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18113,7 +18193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18152,8 +18232,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable67" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable67" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A35:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -18224,7 +18304,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18233,7 +18313,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18272,8 +18352,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable64" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable64" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A20:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -18344,7 +18424,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18353,7 +18433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18392,12 +18472,67 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable62" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A212:B278" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
-      <items count="11">
+      <items count="66">
+        <item x="11"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="13"/>
+        <item x="52"/>
+        <item x="61"/>
+        <item x="16"/>
+        <item x="59"/>
+        <item x="21"/>
+        <item x="62"/>
+        <item x="37"/>
+        <item x="42"/>
+        <item x="15"/>
+        <item x="58"/>
+        <item x="63"/>
+        <item x="35"/>
+        <item x="45"/>
+        <item x="38"/>
+        <item x="18"/>
+        <item x="57"/>
+        <item x="49"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="47"/>
+        <item x="64"/>
+        <item x="51"/>
+        <item x="19"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="53"/>
+        <item x="56"/>
+        <item x="48"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="23"/>
+        <item x="14"/>
+        <item x="29"/>
+        <item x="33"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="28"/>
+        <item x="40"/>
+        <item x="10"/>
+        <item x="54"/>
+        <item x="26"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="60"/>
+        <item x="12"/>
+        <item x="46"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -18422,7 +18557,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="66">
     <i>
       <x/>
     </i>
@@ -18452,6 +18587,171 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
     </i>
     <i t="grand">
       <x/>
@@ -18463,12 +18763,99 @@
   <dataFields count="1">
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="2">
+  <formats count="12">
+    <format dxfId="11">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="50">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="25"/>
+            <x v="26"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="30"/>
+            <x v="31"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="34"/>
+            <x v="35"/>
+            <x v="36"/>
+            <x v="37"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="40"/>
+            <x v="41"/>
+            <x v="42"/>
+            <x v="43"/>
+            <x v="44"/>
+            <x v="45"/>
+            <x v="46"/>
+            <x v="47"/>
+            <x v="48"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="15">
+            <x v="50"/>
+            <x v="51"/>
+            <x v="52"/>
+            <x v="53"/>
+            <x v="54"/>
+            <x v="55"/>
+            <x v="56"/>
+            <x v="57"/>
+            <x v="58"/>
+            <x v="59"/>
+            <x v="60"/>
+            <x v="61"/>
+            <x v="62"/>
+            <x v="63"/>
+            <x v="64"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
-            <x v="9"/>
+            <x v="50"/>
           </reference>
         </references>
       </pivotArea>
@@ -18477,14 +18864,77 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
-            <x v="9"/>
+            <x v="50"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="62"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="62"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="38"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="38"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18503,8 +18953,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A143:B209" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -18795,7 +19245,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="51">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18804,7 +19254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18813,7 +19263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18822,7 +19272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -18861,8 +19311,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A74:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -19153,7 +19603,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="55">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19162,7 +19612,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19171,7 +19621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19180,7 +19630,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19219,8 +19669,116 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A21:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="69">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -19511,10 +20069,10 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="63">
+    <format dxfId="27">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="50">
@@ -19572,7 +20130,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="15">
@@ -19595,10 +20153,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19607,7 +20165,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19616,7 +20174,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19625,7 +20183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19655,8 +20213,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A5:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0" sortType="ascending">
@@ -19715,7 +20273,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="41">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19724,7 +20282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -19754,489 +20312,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A212:B278" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
-      <items count="66">
-        <item x="11"/>
-        <item x="44"/>
-        <item x="24"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="13"/>
-        <item x="52"/>
-        <item x="61"/>
-        <item x="16"/>
-        <item x="59"/>
-        <item x="21"/>
-        <item x="62"/>
-        <item x="37"/>
-        <item x="42"/>
-        <item x="15"/>
-        <item x="58"/>
-        <item x="63"/>
-        <item x="35"/>
-        <item x="45"/>
-        <item x="38"/>
-        <item x="18"/>
-        <item x="57"/>
-        <item x="49"/>
-        <item x="25"/>
-        <item x="20"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="47"/>
-        <item x="64"/>
-        <item x="51"/>
-        <item x="19"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="53"/>
-        <item x="56"/>
-        <item x="48"/>
-        <item x="22"/>
-        <item x="55"/>
-        <item x="23"/>
-        <item x="14"/>
-        <item x="29"/>
-        <item x="33"/>
-        <item x="43"/>
-        <item x="27"/>
-        <item x="17"/>
-        <item x="28"/>
-        <item x="40"/>
-        <item x="10"/>
-        <item x="54"/>
-        <item x="26"/>
-        <item x="50"/>
-        <item x="41"/>
-        <item x="60"/>
-        <item x="12"/>
-        <item x="46"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="66">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="12">
-    <format dxfId="75">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="50">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-            <x v="13"/>
-            <x v="14"/>
-            <x v="15"/>
-            <x v="16"/>
-            <x v="17"/>
-            <x v="18"/>
-            <x v="19"/>
-            <x v="20"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="23"/>
-            <x v="24"/>
-            <x v="25"/>
-            <x v="26"/>
-            <x v="27"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="30"/>
-            <x v="31"/>
-            <x v="32"/>
-            <x v="33"/>
-            <x v="34"/>
-            <x v="35"/>
-            <x v="36"/>
-            <x v="37"/>
-            <x v="38"/>
-            <x v="39"/>
-            <x v="40"/>
-            <x v="41"/>
-            <x v="42"/>
-            <x v="43"/>
-            <x v="44"/>
-            <x v="45"/>
-            <x v="46"/>
-            <x v="47"/>
-            <x v="48"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="73">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="15">
-            <x v="50"/>
-            <x v="51"/>
-            <x v="52"/>
-            <x v="53"/>
-            <x v="54"/>
-            <x v="55"/>
-            <x v="56"/>
-            <x v="57"/>
-            <x v="58"/>
-            <x v="59"/>
-            <x v="60"/>
-            <x v="61"/>
-            <x v="62"/>
-            <x v="63"/>
-            <x v="64"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="72">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="71">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="50"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="70">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="50"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="69">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="62"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="68">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="62"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="67">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="38"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="66">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="38"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="65">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="64">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A52:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0" sortType="ascending">
@@ -20290,7 +20367,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="43">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -20299,110 +20376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A36:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0" sortType="ascending">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="45">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
+    <format dxfId="72">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -20442,27 +20416,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A21:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A36:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0" sortType="ascending">
       <items count="8">
+        <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item x="5"/>
         <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -20501,20 +20470,20 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="47">
+    <format dxfId="75">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
-            <x v="4"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="74">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
-            <x v="4"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -20530,7 +20499,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
+    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20550,7 +20519,126 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable31" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="61">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable31" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A56:B69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
@@ -20629,7 +20717,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="33">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -20638,7 +20726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1" selected="0">
@@ -20677,8 +20765,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable28" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable28" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A39:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -20757,7 +20845,7 @@
     <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="35">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -20766,7 +20854,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -20787,134 +20875,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable23" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A22:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="13">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number of client visits" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21238,7 +21198,7 @@
   <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21269,16 +21229,14 @@
       <c r="C2">
         <v>78</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -21290,14 +21248,14 @@
       <c r="C3">
         <v>167</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -21309,14 +21267,14 @@
       <c r="C4">
         <v>65</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -21328,14 +21286,14 @@
       <c r="C5">
         <v>250</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -21347,14 +21305,14 @@
       <c r="C6">
         <v>93</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -21377,16 +21335,14 @@
       <c r="C8">
         <v>86</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -21398,14 +21354,14 @@
       <c r="C9">
         <v>250</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -21417,14 +21373,14 @@
       <c r="C10">
         <v>185</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -24188,10 +24144,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:L6"/>
-    <mergeCell ref="E8:L10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -24219,36 +24171,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -24299,16 +24251,16 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -24449,38 +24401,38 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -24519,32 +24471,32 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -24925,32 +24877,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -25463,32 +25415,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -26005,32 +25957,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -26544,34 +26496,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -27089,34 +27041,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -27566,34 +27518,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -27722,17 +27674,17 @@
       <c r="B20" s="3">
         <v>196</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -27741,15 +27693,15 @@
       <c r="B21" s="3">
         <v>89</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -27758,15 +27710,15 @@
       <c r="B22" s="3">
         <v>221</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -27914,17 +27866,17 @@
       <c r="B39" s="3">
         <v>63</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -27933,15 +27885,15 @@
       <c r="B40" s="3">
         <v>82</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -27950,15 +27902,15 @@
       <c r="B41" s="3">
         <v>68</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -28125,17 +28077,17 @@
       <c r="B59" s="3">
         <v>93</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -28144,15 +28096,15 @@
       <c r="B60" s="3">
         <v>72</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -28161,15 +28113,15 @@
       <c r="B61" s="3">
         <v>93</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -28315,16 +28267,16 @@
       <c r="B79" s="12">
         <v>301</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -28333,14 +28285,14 @@
       <c r="B80" s="3">
         <v>198</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -28349,14 +28301,14 @@
       <c r="B81" s="3">
         <v>185</v>
       </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
